--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5742302796548</v>
+        <v>216.0507723615824</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.1203135270552</v>
+        <v>295.610198232358</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.1039186922802</v>
+        <v>267.3975758046679</v>
       </c>
       <c r="AD2" t="n">
-        <v>191574.2302796548</v>
+        <v>216050.7723615824</v>
       </c>
       <c r="AE2" t="n">
-        <v>262120.3135270552</v>
+        <v>295610.198232358</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.328779196063874e-06</v>
+        <v>6.15911303514362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5654296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>237103.9186922802</v>
+        <v>267397.5758046679</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.35362061523364</v>
+        <v>120.659480988018</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.8352745474414</v>
+        <v>165.0916250083488</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.2531009766386</v>
+        <v>149.3355120251487</v>
       </c>
       <c r="AD3" t="n">
-        <v>96353.62061523364</v>
+        <v>120659.480988018</v>
       </c>
       <c r="AE3" t="n">
-        <v>131835.2745474414</v>
+        <v>165091.6250083488</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073416899977978e-06</v>
+        <v>9.387149558709482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119253.1009766386</v>
+        <v>149335.5120251487</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.36417449574874</v>
+        <v>106.6700348685331</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.6942971959666</v>
+        <v>145.9506476568741</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.9389116390521</v>
+        <v>132.0213226875622</v>
       </c>
       <c r="AD4" t="n">
-        <v>82364.17449574874</v>
+        <v>106670.0348685331</v>
       </c>
       <c r="AE4" t="n">
-        <v>112694.2971959666</v>
+        <v>145950.6476568741</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.717362433740986e-06</v>
+        <v>1.057861739040346e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.657877604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>101938.9116390521</v>
+        <v>132021.3226875622</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.96879273303237</v>
+        <v>91.249734201282</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.048586074549</v>
+        <v>124.8519119882992</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.73658066676452</v>
+        <v>112.9362207389278</v>
       </c>
       <c r="AD5" t="n">
-        <v>78968.79273303237</v>
+        <v>91249.734201282</v>
       </c>
       <c r="AE5" t="n">
-        <v>108048.586074549</v>
+        <v>124851.9119882992</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.882246849084683e-06</v>
+        <v>1.08836967279084e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.5830078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>97736.58066676452</v>
+        <v>112936.2207389278</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.2668169231181</v>
+        <v>158.7942411885523</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0780264649227</v>
+        <v>217.2692863015768</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.4144393778041</v>
+        <v>196.5334105563751</v>
       </c>
       <c r="AD2" t="n">
-        <v>135266.8169231181</v>
+        <v>158794.2411885523</v>
       </c>
       <c r="AE2" t="n">
-        <v>185078.0264649226</v>
+        <v>217269.2863015768</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.077661647283844e-06</v>
+        <v>7.772652415025818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.855794270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167414.4393778041</v>
+        <v>196533.4105563751</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.31048296104339</v>
+        <v>103.7525663719059</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.8843458357081</v>
+        <v>141.9588385501646</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.39713809282419</v>
+        <v>128.4104862394565</v>
       </c>
       <c r="AD3" t="n">
-        <v>80310.4829610434</v>
+        <v>103752.5663719059</v>
       </c>
       <c r="AE3" t="n">
-        <v>109884.3458357081</v>
+        <v>141958.8385501646</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.719234847275228e-06</v>
+        <v>1.090174428213887e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.7490234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>99397.1380928242</v>
+        <v>128410.4862394565</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.56497770778535</v>
+        <v>86.41403069507403</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.0230920744019</v>
+        <v>118.2354891149266</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.28615135715562</v>
+        <v>106.9512599783799</v>
       </c>
       <c r="AD4" t="n">
-        <v>74564.97770778535</v>
+        <v>86414.03069507403</v>
       </c>
       <c r="AE4" t="n">
-        <v>102023.0920744019</v>
+        <v>118235.4891149266</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.047819927668889e-06</v>
+        <v>1.15280781566928e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.599283854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92286.15135715561</v>
+        <v>106951.2599783799</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.03426207810685</v>
+        <v>85.87580620591672</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.9827464843837</v>
+        <v>117.4990666240732</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.49035804800462</v>
+        <v>106.285120616478</v>
       </c>
       <c r="AD2" t="n">
-        <v>65034.26207810685</v>
+        <v>85875.80620591671</v>
       </c>
       <c r="AE2" t="n">
-        <v>88982.74648438369</v>
+        <v>117499.0666240732</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152162813672909e-06</v>
+        <v>1.310249675406286e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>80490.35804800462</v>
+        <v>106285.120616478</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.54601405957368</v>
+        <v>99.5178996143249</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.1525628107014</v>
+        <v>136.1647806721329</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5899322547696</v>
+        <v>123.169405113291</v>
       </c>
       <c r="AD2" t="n">
-        <v>88546.01405957367</v>
+        <v>99517.89961432491</v>
       </c>
       <c r="AE2" t="n">
-        <v>121152.5628107014</v>
+        <v>136164.7806721329</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.585026016151646e-06</v>
+        <v>1.133953373311614e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.004557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109589.9322547695</v>
+        <v>123169.405113291</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.9448300184788</v>
+        <v>89.80308125630758</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.96511394559374</v>
+        <v>122.8725376071625</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.09265394800588</v>
+        <v>111.1457550706568</v>
       </c>
       <c r="AD3" t="n">
-        <v>67944.83001847879</v>
+        <v>89803.08125630757</v>
       </c>
       <c r="AE3" t="n">
-        <v>92965.11394559374</v>
+        <v>122872.5376071625</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213042436628305e-06</v>
+        <v>1.261462419184473e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.701822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84092.65394800587</v>
+        <v>111145.7550706568</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.94453145536552</v>
+        <v>83.99110926090991</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.1741701396847</v>
+        <v>114.9203411169552</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.51824934041811</v>
+        <v>103.9525050524945</v>
       </c>
       <c r="AD2" t="n">
-        <v>73944.53145536552</v>
+        <v>83991.10926090991</v>
       </c>
       <c r="AE2" t="n">
-        <v>101174.1701396847</v>
+        <v>114920.3411169552</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944488444483941e-06</v>
+        <v>1.323721466436048e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.064778645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91518.24934041812</v>
+        <v>103952.5050524945</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4736745894323</v>
+        <v>180.1428838985951</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.0941847044894</v>
+        <v>246.4794410930877</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6613361994296</v>
+        <v>222.9557891713032</v>
       </c>
       <c r="AD2" t="n">
-        <v>156473.6745894323</v>
+        <v>180142.8838985951</v>
       </c>
       <c r="AE2" t="n">
-        <v>214094.1847044894</v>
+        <v>246479.4410930877</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.885107305861959e-06</v>
+        <v>7.34581974262491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>193661.3361994296</v>
+        <v>222955.7891713032</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.11617938637316</v>
+        <v>107.7852991869849</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.0914675803185</v>
+        <v>147.4766014993683</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1072994463719</v>
+        <v>133.4016416370189</v>
       </c>
       <c r="AD3" t="n">
-        <v>84116.17938637316</v>
+        <v>107785.2991869849</v>
       </c>
       <c r="AE3" t="n">
-        <v>115091.4675803185</v>
+        <v>147476.6014993683</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.553571802362975e-06</v>
+        <v>1.050049179499611e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.805989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104107.2994463719</v>
+        <v>133401.6416370189</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.69536056721364</v>
+        <v>87.65793174937696</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.5697317716431</v>
+        <v>119.9374494144645</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.68518193241506</v>
+        <v>108.4907875756467</v>
       </c>
       <c r="AD4" t="n">
-        <v>75695.36056721365</v>
+        <v>87657.93174937696</v>
       </c>
       <c r="AE4" t="n">
-        <v>103569.7317716431</v>
+        <v>119937.4494144645</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>1.134929059745271e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.596028645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>93685.18193241506</v>
+        <v>108490.7875756468</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.53217722267631</v>
+        <v>83.33185571602601</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6099688867348</v>
+        <v>114.0183213326318</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.00789466318814</v>
+        <v>103.1365727703939</v>
       </c>
       <c r="AD2" t="n">
-        <v>73532.17722267631</v>
+        <v>83331.85571602601</v>
       </c>
       <c r="AE2" t="n">
-        <v>100609.9688867348</v>
+        <v>114018.3213326318</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.723789924568971e-06</v>
+        <v>1.312217045465929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2568359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>91007.89466318814</v>
+        <v>103136.5727703939</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9903907488723</v>
+        <v>132.6103798815938</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.493705056115</v>
+        <v>181.4433721109797</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1307970648421</v>
+        <v>164.1266713341307</v>
       </c>
       <c r="AD2" t="n">
-        <v>109990.3907488723</v>
+        <v>132610.3798815937</v>
       </c>
       <c r="AE2" t="n">
-        <v>150493.705056115</v>
+        <v>181443.3721109797</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.752857607820524e-06</v>
+        <v>9.315535227148913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.408203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>136130.797064842</v>
+        <v>164126.6713341307</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.58948153744431</v>
+        <v>94.2947220161864</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.95188694451686</v>
+        <v>129.0181986520307</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.60349633089322</v>
+        <v>116.7048828508942</v>
       </c>
       <c r="AD3" t="n">
-        <v>71589.48153744431</v>
+        <v>94294.7220161864</v>
       </c>
       <c r="AE3" t="n">
-        <v>97951.88694451685</v>
+        <v>129018.1986520307</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.11429989195596e-06</v>
+        <v>1.198394328901161e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.649739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88603.49633089322</v>
+        <v>116704.8828508942</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.45789368647793</v>
+        <v>82.93852520770639</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.77184264157843</v>
+        <v>113.4801491786318</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.44063520353343</v>
+        <v>102.6497630114421</v>
       </c>
       <c r="AD4" t="n">
-        <v>71457.89368647792</v>
+        <v>82938.52520770639</v>
       </c>
       <c r="AE4" t="n">
-        <v>97771.84264157843</v>
+        <v>113480.1491786318</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.140372392390394e-06</v>
+        <v>1.203504502954286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.638346354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88440.63520353343</v>
+        <v>102649.7630114421</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5998260312951</v>
+        <v>149.8915805633039</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.2194671660837</v>
+        <v>205.0882732764507</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6876443348501</v>
+        <v>185.514936318204</v>
       </c>
       <c r="AD2" t="n">
-        <v>126599.8260312951</v>
+        <v>149891.5805633039</v>
       </c>
       <c r="AE2" t="n">
-        <v>173219.4671660837</v>
+        <v>205088.2732764507</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280198425880951e-06</v>
+        <v>8.229550701750718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.707682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>156687.6443348501</v>
+        <v>185514.936318204</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.63387055680947</v>
+        <v>99.84028423424671</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.853842543546</v>
+        <v>136.6058815317154</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.84673897450878</v>
+        <v>123.568407925924</v>
       </c>
       <c r="AD3" t="n">
-        <v>76633.87055680947</v>
+        <v>99840.2842342467</v>
       </c>
       <c r="AE3" t="n">
-        <v>104853.842543546</v>
+        <v>136605.8815317154</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.887832296351705e-06</v>
+        <v>1.132055329800717e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.6953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>94846.73897450879</v>
+        <v>123568.407925924</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.76519034802553</v>
+        <v>85.49640846860159</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.928787724651</v>
+        <v>116.9799579020321</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.29628587867879</v>
+        <v>105.8155549022946</v>
       </c>
       <c r="AD4" t="n">
-        <v>73765.19034802553</v>
+        <v>85496.40846860158</v>
       </c>
       <c r="AE4" t="n">
-        <v>100928.787724651</v>
+        <v>116979.9579020321</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.056415445432487e-06</v>
+        <v>1.164468863818957e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.620442708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>91296.28587867878</v>
+        <v>105815.5549022946</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.279648477547</v>
+        <v>203.3801080102652</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.2983243067512</v>
+        <v>278.2736362766348</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.8873965133465</v>
+        <v>251.7155909899759</v>
       </c>
       <c r="AD2" t="n">
-        <v>179279.648477547</v>
+        <v>203380.1080102652</v>
       </c>
       <c r="AE2" t="n">
-        <v>245298.3243067512</v>
+        <v>278273.6362766348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49862865681153e-06</v>
+        <v>6.517679829166533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.378255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221887.3965133465</v>
+        <v>251715.5909899759</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.72463201382428</v>
+        <v>116.8250020379914</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.8699322433177</v>
+        <v>159.8451217436528</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.7616439731172</v>
+        <v>144.58972766852</v>
       </c>
       <c r="AD3" t="n">
-        <v>92724.63201382427</v>
+        <v>116825.0020379914</v>
       </c>
       <c r="AE3" t="n">
-        <v>126869.9322433177</v>
+        <v>159845.1217436529</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.210156854599681e-06</v>
+        <v>9.706127048352077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.939453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>114761.6439731172</v>
+        <v>144589.72766852</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.15451957658966</v>
+        <v>91.33271587053066</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.302705735594</v>
+        <v>124.965451169058</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.96644750401866</v>
+        <v>113.0389238996283</v>
       </c>
       <c r="AD4" t="n">
-        <v>79154.51957658966</v>
+        <v>91332.71587053066</v>
       </c>
       <c r="AE4" t="n">
-        <v>108302.705735594</v>
+        <v>124965.451169058</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.855579728262451e-06</v>
+        <v>1.090850090896873e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.615559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>97966.44750401867</v>
+        <v>113038.9238996283</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.41428812049882</v>
+        <v>90.59248441443982</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.289888400664</v>
+        <v>123.952633834128</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.05029203403599</v>
+        <v>112.1227684296456</v>
       </c>
       <c r="AD5" t="n">
-        <v>78414.28812049882</v>
+        <v>90592.48441443982</v>
       </c>
       <c r="AE5" t="n">
-        <v>107289.888400664</v>
+        <v>123952.633834128</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.898118535333839e-06</v>
+        <v>1.098774748012632e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>97050.29203403599</v>
+        <v>112122.7684296456</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.56416493108543</v>
+        <v>106.6847379287454</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.7551064520636</v>
+        <v>145.9707650325098</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.2760226082579</v>
+        <v>132.0395200891021</v>
       </c>
       <c r="AD2" t="n">
-        <v>95564.16493108543</v>
+        <v>106684.7379287454</v>
       </c>
       <c r="AE2" t="n">
-        <v>130755.1064520636</v>
+        <v>145970.7650325098</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.276268648822691e-06</v>
+        <v>1.057626655064646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.141276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118276.0226082579</v>
+        <v>132039.5200891021</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.06127873524089</v>
+        <v>91.21690485888706</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.49268833410807</v>
+        <v>124.8069934337061</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.47443878084502</v>
+        <v>112.8955891481414</v>
       </c>
       <c r="AD3" t="n">
-        <v>69061.27873524089</v>
+        <v>91216.90485888706</v>
       </c>
       <c r="AE3" t="n">
-        <v>94492.68833410807</v>
+        <v>124806.9934337061</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192707499273331e-06</v>
+        <v>1.241326580236135e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.67578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>85474.43878084503</v>
+        <v>112895.5891481414</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.73598200923935</v>
+        <v>87.94113916841154</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.31111476874287</v>
+        <v>120.3249462994169</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.59651013119074</v>
+        <v>108.8413023017548</v>
       </c>
       <c r="AD2" t="n">
-        <v>66735.98200923935</v>
+        <v>87941.13916841154</v>
       </c>
       <c r="AE2" t="n">
-        <v>91311.11476874287</v>
+        <v>120324.9462994169</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131302572215193e-06</v>
+        <v>1.282706841996516e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.815755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82596.51013119073</v>
+        <v>108841.3023017548</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.13594025009611</v>
+        <v>87.34109740926831</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.49011116190941</v>
+        <v>119.5039426925834</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.85386195630737</v>
+        <v>108.0986541268714</v>
       </c>
       <c r="AD3" t="n">
-        <v>66135.94025009612</v>
+        <v>87341.09740926832</v>
       </c>
       <c r="AE3" t="n">
-        <v>90490.11116190942</v>
+        <v>119503.9426925834</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.201512779663714e-06</v>
+        <v>1.297395256474758e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.783203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>81853.86195630737</v>
+        <v>108098.6541268714</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.24140793087417</v>
+        <v>84.68683748209028</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.89792846188416</v>
+        <v>115.8722671625366</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.50907353502045</v>
+        <v>104.8135806123225</v>
       </c>
       <c r="AD2" t="n">
-        <v>64241.40793087417</v>
+        <v>84686.83748209028</v>
       </c>
       <c r="AE2" t="n">
-        <v>87897.92846188416</v>
+        <v>115872.2671625366</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.082862334173663e-06</v>
+        <v>1.322326538238816e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79509.07353502045</v>
+        <v>104813.5806123225</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.86425087178741</v>
+        <v>92.88900555386827</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.0643267035038</v>
+        <v>127.0948353724546</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.41888920762005</v>
+        <v>114.9650826632629</v>
       </c>
       <c r="AD2" t="n">
-        <v>73864.2508717874</v>
+        <v>92889.00555386828</v>
       </c>
       <c r="AE2" t="n">
-        <v>101064.3267035038</v>
+        <v>127094.8353724546</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.330264072425925e-06</v>
+        <v>1.267817681896333e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91418.88920762006</v>
+        <v>114965.0826632629</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.5250072078986</v>
+        <v>140.5715198102054</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.8028996991679</v>
+        <v>192.3361549820064</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.4560966402108</v>
+        <v>173.979862296067</v>
       </c>
       <c r="AD2" t="n">
-        <v>117525.0072078986</v>
+        <v>140571.5198102054</v>
       </c>
       <c r="AE2" t="n">
-        <v>160802.8996991679</v>
+        <v>192336.1549820064</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.523524013903626e-06</v>
+        <v>8.778252065887644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.543294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145456.0966402108</v>
+        <v>173979.862296067</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.3544705826249</v>
+        <v>96.31564233036011</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3668228219529</v>
+        <v>131.7833109825937</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.78795411757132</v>
+        <v>119.2060967414887</v>
       </c>
       <c r="AD3" t="n">
-        <v>73354.4705826249</v>
+        <v>96315.6423303601</v>
       </c>
       <c r="AE3" t="n">
-        <v>100366.8228219529</v>
+        <v>131783.3109825937</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.04095041055631e-06</v>
+        <v>1.172293664373162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.652994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90787.95411757132</v>
+        <v>119206.0967414887</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.38612250395332</v>
+        <v>83.99471965967838</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.04188626021293</v>
+        <v>114.9252810238298</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.58946764172329</v>
+        <v>103.9569735015901</v>
       </c>
       <c r="AD4" t="n">
-        <v>72386.12250395332</v>
+        <v>83994.71965967838</v>
       </c>
       <c r="AE4" t="n">
-        <v>99041.88626021294</v>
+        <v>114925.2810238298</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.114217023516891e-06</v>
+        <v>1.186511623526357e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.6220703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>89589.46764172328</v>
+        <v>103956.9735015901</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9665435440487</v>
+        <v>191.8549536062768</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.8192350377816</v>
+        <v>262.5044115671783</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.8856097991642</v>
+        <v>237.4513589545391</v>
       </c>
       <c r="AD2" t="n">
-        <v>167966.5435440487</v>
+        <v>191854.9536062768</v>
       </c>
       <c r="AE2" t="n">
-        <v>229819.2350377816</v>
+        <v>262504.4115671783</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.677094673304775e-06</v>
+        <v>6.899671871184643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.200846354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207885.6097991642</v>
+        <v>237451.3589545391</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.53238309398638</v>
+        <v>112.4207036476634</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.1339123222291</v>
+        <v>153.8189663820774</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.5730617427409</v>
+        <v>139.1387001168892</v>
       </c>
       <c r="AD3" t="n">
-        <v>88532.38309398638</v>
+        <v>112420.7036476634</v>
       </c>
       <c r="AE3" t="n">
-        <v>121133.9123222291</v>
+        <v>153818.9663820774</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.370120198258464e-06</v>
+        <v>1.007645181011998e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8759765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>109573.0617427409</v>
+        <v>139138.7001168892</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.13863308807569</v>
+        <v>89.21080464677162</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.5444809073754</v>
+        <v>122.062158620596</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.4714637822115</v>
+        <v>110.4127175171938</v>
       </c>
       <c r="AD4" t="n">
-        <v>77138.63308807569</v>
+        <v>89210.80464677162</v>
       </c>
       <c r="AE4" t="n">
-        <v>105544.4809073754</v>
+        <v>122062.158620596</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.938257848496551e-06</v>
+        <v>1.114250088216783e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.600911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>95471.4637822115</v>
+        <v>110412.7175171938</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.20913139020534</v>
+        <v>89.28130294890127</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.6409397945147</v>
+        <v>122.1586175077353</v>
       </c>
       <c r="AC5" t="n">
-        <v>95.55871676854318</v>
+        <v>110.4999705035255</v>
       </c>
       <c r="AD5" t="n">
-        <v>77209.13139020534</v>
+        <v>89281.30294890127</v>
       </c>
       <c r="AE5" t="n">
-        <v>105640.9397945147</v>
+        <v>122158.6175077353</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.935505887271079e-06</v>
+        <v>1.113733712350918e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.6025390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>95558.71676854318</v>
+        <v>110499.9705035255</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.62425044682779</v>
+        <v>103.8593850272737</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1548769366311</v>
+        <v>142.1049925469453</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9737799097319</v>
+        <v>128.5426915039129</v>
       </c>
       <c r="AD2" t="n">
-        <v>85624.25044682779</v>
+        <v>103859.3850272737</v>
       </c>
       <c r="AE2" t="n">
-        <v>117154.8769366311</v>
+        <v>142104.9925469453</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573408233373712e-06</v>
+        <v>1.143774691785871e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105973.7799097319</v>
+        <v>128542.6915039129</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.83734438940965</v>
+        <v>92.37989748352359</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.92277971662723</v>
+        <v>126.3982512503464</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.672605652472</v>
+        <v>114.3349795521066</v>
       </c>
       <c r="AD2" t="n">
-        <v>70837.34438940966</v>
+        <v>92379.89748352359</v>
       </c>
       <c r="AE2" t="n">
-        <v>96922.77971662724</v>
+        <v>126398.2512503464</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.926970764451837e-06</v>
+        <v>1.220531285199158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.869466145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87672.605652472</v>
+        <v>114334.9795521066</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.27533632097283</v>
+        <v>88.81788941508674</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.04908313268913</v>
+        <v>121.5245546664084</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.2640478302273</v>
+        <v>109.9264217298618</v>
       </c>
       <c r="AD3" t="n">
-        <v>67275.33632097283</v>
+        <v>88817.88941508674</v>
       </c>
       <c r="AE3" t="n">
-        <v>92049.08313268913</v>
+        <v>121524.5546664084</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192430829372357e-06</v>
+        <v>1.275197037247364e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.747395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>83264.0478302273</v>
+        <v>109926.4217298618</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.8817962845695</v>
+        <v>113.143193121894</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.3991683841209</v>
+        <v>154.8075083547053</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.0951074015395</v>
+        <v>140.0328970310771</v>
       </c>
       <c r="AD2" t="n">
-        <v>101881.7962845695</v>
+        <v>113143.193121894</v>
       </c>
       <c r="AE2" t="n">
-        <v>139399.1683841209</v>
+        <v>154807.5083547053</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.034344775166499e-06</v>
+        <v>9.973963881796758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.253580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126095.1074015395</v>
+        <v>140032.8970310772</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.29290712751003</v>
+        <v>92.7301809304852</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.17785663601968</v>
+        <v>126.8775245158941</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.99877698517128</v>
+        <v>114.7685116498548</v>
       </c>
       <c r="AD3" t="n">
-        <v>70292.90712751003</v>
+        <v>92730.18093048521</v>
       </c>
       <c r="AE3" t="n">
-        <v>96177.85663601969</v>
+        <v>126877.5245158941</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158599935322705e-06</v>
+        <v>1.220132034268809e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.659505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86998.77698517128</v>
+        <v>114768.5116498548</v>
       </c>
     </row>
   </sheetData>
